--- a/notion_data/DANH_MUC_DICH_VU.xlsx
+++ b/notion_data/DANH_MUC_DICH_VU.xlsx
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}]</t>
+          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}]</t>
         </is>
       </c>
       <c r="AB3" t="b">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>[{'id': 'ab660ea7-d879-480b-adf9-d50b1cf680d4'}, {'id': '4fd2a841-5293-484d-b5ba-ec0236294574'}, {'id': 'd27216c4-ba32-4973-b2ce-9b04af6ff585'}, {'id': '47ff8592-f0f8-4311-a1ed-663587ed2f33'}, {'id': '4d1ce8ad-da1c-43bc-a0a1-96aa4c0cce3d'}]</t>
+          <t>[{'id': 'ab660ea7-d879-480b-adf9-d50b1cf680d4'}, {'id': '4fd2a841-5293-484d-b5ba-ec0236294574'}, {'id': 'd27216c4-ba32-4973-b2ce-9b04af6ff585'}, {'id': '47ff8592-f0f8-4311-a1ed-663587ed2f33'}, {'id': '4d1ce8ad-da1c-43bc-a0a1-96aa4c0cce3d'}, {'id': '913dd373-c562-4bfd-9745-ac99cf151a88'}]</t>
         </is>
       </c>
       <c r="AB4" t="b">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}]</t>
+          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}]</t>
         </is>
       </c>
       <c r="AB23" t="b">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>7200000</v>
+        <v>8000000</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>[{'id': '0047220f-aae8-4ad7-b079-971e004acfd3'}]</t>
+          <t>[{'id': '0047220f-aae8-4ad7-b079-971e004acfd3'}, {'id': '1260266f-900f-4307-a3f4-98ae5f2b10de'}]</t>
         </is>
       </c>
       <c r="AB39" t="b">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}]</t>
+          <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}, {'id': 'e2beda79-0b93-4717-977c-c0ea2d579453'}]</t>
         </is>
       </c>
       <c r="AB44" t="b">
@@ -10836,7 +10836,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}]</t>
+          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}]</t>
         </is>
       </c>
       <c r="AB49" t="b">

--- a/notion_data/DANH_MUC_DICH_VU.xlsx
+++ b/notion_data/DANH_MUC_DICH_VU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AW48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,52 +636,47 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>properties.Nhóm dịch vụ.select</t>
+          <t>properties.Nhóm dịch vụ.select.id</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>properties.Nhóm dịch vụ.select.name</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Nhóm dịch vụ.select.color</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>properties.Công phụ phẫu 2.id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>properties.Công phụ phẫu 2.type</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.Công phụ phẫu 2.number</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.Tên dịch vụ.id</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>properties.Tên dịch vụ.type</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Tên dịch vụ.title</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Nhóm dịch vụ.select.id</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Nhóm dịch vụ.select.name</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Nhóm dịch vụ.select.color</t>
         </is>
       </c>
     </row>
@@ -693,17 +688,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cb579f54-2240-41ab-9abc-21f5b506941e</t>
+          <t>0e526229-72a4-4383-8a15-fe91f9a4a968</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-21T15:31:00.000Z</t>
+          <t>2024-07-16T05:46:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06-21T15:31:00.000Z</t>
+          <t>2024-07-16T08:31:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -716,7 +711,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Phun-m-cb579f54224041ab9abc21f5b506941e</t>
+          <t>https://www.notion.so/c-t-s-o-0e52622972a443838a15fe91f9a4a968</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -727,7 +722,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -737,7 +732,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -796,7 +791,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>[{'id': '8ae34a26-7482-4de0-8a83-c448029abc30'}]</t>
+          <t>[{'id': 'fbd8139e-c14e-455b-803e-83622717ac99'}]</t>
         </is>
       </c>
       <c r="AB2" t="b">
@@ -817,7 +812,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>13000000</v>
+      </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>sum</t>
@@ -856,36 +853,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP2" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phun mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mí', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'cắt sẹo ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'cắt sẹo ', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -895,17 +903,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22f42f24-b99f-4c18-93b4-5f64deff47c3</t>
+          <t>cb579f54-2240-41ab-9abc-21f5b506941e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-06-19T16:53:00.000Z</t>
+          <t>2024-06-21T15:31:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06-19T16:53:00.000Z</t>
+          <t>2024-07-17T12:12:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -918,7 +926,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Phun-m-y-22f42f24b99f4c1893b45f64deff47c3</t>
+          <t>https://www.notion.so/Phun-m-cb579f54224041ab9abc21f5b506941e</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -939,7 +947,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -968,7 +976,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -998,7 +1006,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}]</t>
+          <t>[{'id': '8ae34a26-7482-4de0-8a83-c448029abc30'}]</t>
         </is>
       </c>
       <c r="AB3" t="b">
@@ -1019,7 +1027,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>900000</v>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
           <t>sum</t>
@@ -1041,7 +1051,7 @@
         </is>
       </c>
       <c r="AK3" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1058,36 +1068,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>8c20c3e1-370f-4be1-b533-8716cb78184c</t>
+        </is>
+      </c>
       <c r="AP3" t="inlineStr">
         <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phun mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mày', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Phun mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mí', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1097,17 +1118,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7b20f824-4e30-4f2a-af5f-3926531a416b</t>
+          <t>22f42f24-b99f-4c18-93b4-5f64deff47c3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-18T14:45:00.000Z</t>
+          <t>2024-06-19T16:53:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-06-18T14:45:00.000Z</t>
+          <t>2024-07-17T12:12:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1120,7 +1141,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-t-m-7b20f8244e304f2aaf5f3926531a416b</t>
+          <t>https://www.notion.so/Phun-m-y-22f42f24b99f4c1893b45f64deff47c3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1141,7 +1162,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1170,7 +1191,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1200,7 +1221,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>[{'id': 'ab660ea7-d879-480b-adf9-d50b1cf680d4'}, {'id': '4fd2a841-5293-484d-b5ba-ec0236294574'}, {'id': 'd27216c4-ba32-4973-b2ce-9b04af6ff585'}, {'id': '47ff8592-f0f8-4311-a1ed-663587ed2f33'}, {'id': '4d1ce8ad-da1c-43bc-a0a1-96aa4c0cce3d'}, {'id': '913dd373-c562-4bfd-9745-ac99cf151a88'}]</t>
+          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}, {'id': '809f99c9-8a86-448a-b8a7-107c756853d1'}, {'id': 'a3bb4f64-a8b3-4473-9a72-4afc8ec81402'}]</t>
         </is>
       </c>
       <c r="AB4" t="b">
@@ -1221,7 +1242,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>11900000</v>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>sum</t>
@@ -1243,7 +1266,7 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1260,36 +1283,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>8c20c3e1-370f-4be1-b533-8716cb78184c</t>
+        </is>
+      </c>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cắt mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt mí', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Phun mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mày', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1309,7 +1343,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-17T18:02:00.000Z</t>
+          <t>2024-07-10T15:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1423,7 +1457,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>1000000</v>
+      </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>sum</t>
@@ -1462,36 +1498,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>a81aa572-4404-4541-907a-3002242a41c0</t>
+        </is>
+      </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>Cọc</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cọc Dịch Vụ Làm Đẹp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cọc Dịch Vụ Làm Đẹp', 'href': None}]</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1511,7 +1558,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-14T16:28:00.000Z</t>
+          <t>2024-07-17T12:09:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1545,7 +1592,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1625,7 +1672,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>10000000</v>
+      </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>sum</t>
@@ -1664,36 +1713,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Thu quầng ti', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu quầng ti', 'href': None}]</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1703,17 +1763,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8955d744-442b-441f-ada5-2d313322cf84</t>
+          <t>4004ba45-0c0e-4492-9ee9-74eea86b7f3f</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-12T12:58:00.000Z</t>
+          <t>2024-06-05T04:28:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-12T12:58:00.000Z</t>
+          <t>2024-07-10T15:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1726,7 +1786,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/c-t-m-8955d744442b441fada52d313322cf84</t>
+          <t>https://www.notion.so/Cost-d-ch-v-S-c-tr-ng-4004ba450c0e44929ee974eea86b7f3f</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1737,7 +1797,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1747,7 +1807,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1776,7 +1836,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1806,7 +1866,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>[{'id': '9b0f7b30-9912-4b7a-aa2a-60eaf1b0b933'}, {'id': '8ef03afc-c5f7-4697-b088-e0d148865e86'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AB7" t="b">
@@ -1827,7 +1887,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>sum</t>
@@ -1866,36 +1928,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>a81aa572-4404-4541-907a-3002242a41c0</t>
+        </is>
+      </c>
       <c r="AP7" t="inlineStr">
         <is>
+          <t>Cọc</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'cắt mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'cắt mí', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Sóc trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Sóc trăng', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1905,7 +1978,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4004ba45-0c0e-4492-9ee9-74eea86b7f3f</t>
+          <t>9e9a9a86-334a-43e7-8630-67798d7a8b93</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1915,7 +1988,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06-05T04:28:00.000Z</t>
+          <t>2024-07-10T15:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1928,7 +2001,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Cost-d-ch-v-S-c-tr-ng-4004ba450c0e44929ee974eea86b7f3f</t>
+          <t>https://www.notion.so/Cost-d-ch-v-C-n-th-9e9a9a86334a43e7863067798d7a8b93</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2029,7 +2102,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>sum</t>
@@ -2068,36 +2143,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>a81aa572-4404-4541-907a-3002242a41c0</t>
+        </is>
+      </c>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>Cọc</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Sóc trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Sóc trăng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Cần thơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Cần thơ', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2107,17 +2193,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9e9a9a86-334a-43e7-8630-67798d7a8b93</t>
+          <t>36462e8c-5495-4879-91b2-e4852d8f4f0a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-05T04:28:00.000Z</t>
+          <t>2024-05-30T03:10:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06-05T04:28:00.000Z</t>
+          <t>2024-07-10T15:53:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2130,7 +2216,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Cost-d-ch-v-C-n-th-9e9a9a86334a43e7863067798d7a8b93</t>
+          <t>https://www.notion.so/Cost-d-ch-v-Long-Xuy-n-36462e8c5495487991b2e4852d8f4f0a</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2180,7 +2266,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -2210,7 +2296,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'id': 'c68a037f-1118-45ce-9b05-35621813304e'}]</t>
         </is>
       </c>
       <c r="AB9" t="b">
@@ -2231,7 +2317,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>5000000</v>
+      </c>
       <c r="AG9" t="inlineStr">
         <is>
           <t>sum</t>
@@ -2270,36 +2358,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>a81aa572-4404-4541-907a-3002242a41c0</t>
+        </is>
+      </c>
       <c r="AP9" t="inlineStr">
         <is>
+          <t>Cọc</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Cần thơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Cần thơ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Long Xuyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Long Xuyên', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2309,17 +2408,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4e7797aa-41ba-4dbf-a02c-71e6840b37dc</t>
+          <t>ea4d15da-4075-4b1b-9539-fb9b77419fc0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-02T02:38:00.000Z</t>
+          <t>2024-05-30T02:39:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-02T02:38:00.000Z</t>
+          <t>2024-07-17T12:06:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2332,7 +2431,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/D-ch-v-h-u-c-n-t-i-C-n-th-4e7797aa41ba4dbfa02c71e6840b37dc</t>
+          <t>https://www.notion.so/S-n-ph-m-l-m-h-ng-ea4d15da40754b1b9539fb9b77419fc0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2343,19 +2442,19 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>database_id</t>
@@ -2382,7 +2481,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -2412,7 +2511,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'id': 'e3ead5ae-5e84-4ca8-9679-c113e3c38fe1'}]</t>
         </is>
       </c>
       <c r="AB10" t="b">
@@ -2433,7 +2532,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>3200000</v>
+      </c>
       <c r="AG10" t="inlineStr">
         <is>
           <t>sum</t>
@@ -2472,36 +2573,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Dịch vụ hậu cần tại Cần thơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Dịch vụ hậu cần tại Cần thơ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Sản phẩm làm hồng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sản phẩm làm hồng', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2511,17 +2623,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>36462e8c-5495-4879-91b2-e4852d8f4f0a</t>
+          <t>a6990071-8753-4c01-9b2f-0739b4f66f2c</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-05-30T03:10:00.000Z</t>
+          <t>2024-05-18T16:34:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05-30T03:10:00.000Z</t>
+          <t>2024-05-28T15:07:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2534,7 +2646,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Cost-d-ch-v-Long-Xuy-n-36462e8c5495487991b2e4852d8f4f0a</t>
+          <t>https://www.notion.so/Thu-h-p-tai-a699007187534c019b2f0739b4f66f2c</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2601,7 +2713,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>hBL%3B</t>
@@ -2614,7 +2728,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>[{'id': 'c68a037f-1118-45ce-9b05-35621813304e'}]</t>
+          <t>[{'id': '1b089efb-2955-4547-8a75-09169da83bd9'}]</t>
         </is>
       </c>
       <c r="AB11" t="b">
@@ -2635,7 +2749,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>2000000</v>
+      </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>sum</t>
@@ -2674,36 +2790,49 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
+        </is>
+      </c>
       <c r="AP11" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cost dịch vụ Long Xuyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cost dịch vụ Long Xuyên', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Thu hẹp tai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu hẹp tai', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2713,17 +2842,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ea4d15da-4075-4b1b-9539-fb9b77419fc0</t>
+          <t>0e8d32d1-9199-427b-940d-16f4a47ad843</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-05-30T02:39:00.000Z</t>
+          <t>2024-05-18T11:42:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05-30T02:39:00.000Z</t>
+          <t>2024-07-17T12:06:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2736,7 +2865,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/S-n-ph-m-l-m-h-ng-ea4d15da40754b1b9539fb9b77419fc0</t>
+          <t>https://www.notion.so/H-t-m-n-ch-0e8d32d19199427b940d16f4a47ad843</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2747,7 +2876,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2757,7 +2886,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2803,7 +2932,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>200000</v>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>hBL%3B</t>
@@ -2816,7 +2947,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>[{'id': 'e3ead5ae-5e84-4ca8-9679-c113e3c38fe1'}]</t>
+          <t>[{'id': '375900ba-870d-4372-be18-f3821db1f765'}]</t>
         </is>
       </c>
       <c r="AB12" t="b">
@@ -2837,7 +2968,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>10000000</v>
+      </c>
       <c r="AG12" t="inlineStr">
         <is>
           <t>sum</t>
@@ -2859,7 +2992,7 @@
         </is>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2876,36 +3009,49 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP12" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sản phẩm làm hồng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sản phẩm làm hồng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ nách', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ nách', 'href': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2915,17 +3061,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a6990071-8753-4c01-9b2f-0739b4f66f2c</t>
+          <t>e35eb82e-47a3-4f59-9454-f01a4058c7ef</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-05-18T16:34:00.000Z</t>
+          <t>2024-05-18T11:41:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-17T12:09:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2938,7 +3084,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Thu-h-p-tai-a699007187534c019b2f0739b4f66f2c</t>
+          <t>https://www.notion.so/Thu-u-ti-e35eb82e47a34f599454f01a4058c7ef</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3020,7 +3166,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>[{'id': '1b089efb-2955-4547-8a75-09169da83bd9'}]</t>
+          <t>[{'id': 'c52efd4a-d721-4ad0-8c77-124b8bb455eb'}]</t>
         </is>
       </c>
       <c r="AB13" t="b">
@@ -3041,7 +3187,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>15000000</v>
+      </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>sum</t>
@@ -3063,7 +3211,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3080,48 +3228,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP13" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thu hẹp tai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu hẹp tai', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thu đầu ti', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu đầu ti', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3133,17 +3280,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0e8d32d1-9199-427b-940d-16f4a47ad843</t>
+          <t>8f39c4f8-640e-40d9-8c26-52759475caa4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-05-18T11:42:00.000Z</t>
+          <t>2024-05-18T10:08:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-05-28T15:08:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3156,7 +3303,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/H-t-m-n-ch-0e8d32d19199427b940d16f4a47ad843</t>
+          <t>https://www.notion.so/Up-m-c-M-8f39c4f8640e40d98c2652759475caa4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3167,7 +3314,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3224,7 +3371,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
@@ -3238,7 +3385,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>[{'id': '375900ba-870d-4372-be18-f3821db1f765'}]</t>
+          <t>[{'id': '23ea044e-f385-412a-bdfb-58dfc32d274f'}]</t>
         </is>
       </c>
       <c r="AB14" t="b">
@@ -3259,7 +3406,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>500000</v>
+      </c>
       <c r="AG14" t="inlineStr">
         <is>
           <t>sum</t>
@@ -3281,7 +3430,7 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3298,48 +3447,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
+        </is>
+      </c>
       <c r="AP14" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ nách', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ nách', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>1272f84f-63be-4c7a-b775-dc6ebf245967</t>
-        </is>
-      </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Hút mỡ</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>brown</t>
+          <t>[{'type': 'text', 'text': {'content': 'Up mực Mỹ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Up mực Mỹ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3351,17 +3499,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>e35eb82e-47a3-4f59-9454-f01a4058c7ef</t>
+          <t>44a16666-eb90-4688-b096-d3ae103bf9b7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-18T11:41:00.000Z</t>
+          <t>2024-05-18T10:01:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3374,7 +3522,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Thu-u-ti-e35eb82e47a34f599454f01a4058c7ef</t>
+          <t>https://www.notion.so/Treo-cung-44a16666eb904688b096d3ae103bf9b7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3385,19 +3533,19 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>database_id</t>
@@ -3424,7 +3572,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -3442,7 +3590,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
@@ -3456,7 +3604,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>[{'id': 'c52efd4a-d721-4ad0-8c77-124b8bb455eb'}]</t>
+          <t>[{'id': '8495c8de-8b3c-49b7-a595-da1307b4576f'}, {'id': '45183006-5603-42d6-a5bf-0b84f7b03e93'}, {'id': '8c78214c-0902-4e61-a4c3-ac0cbc1da84e'}]</t>
         </is>
       </c>
       <c r="AB15" t="b">
@@ -3477,7 +3625,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>37000000</v>
+      </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>sum</t>
@@ -3499,7 +3649,7 @@
         </is>
       </c>
       <c r="AK15" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3516,48 +3666,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP15" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thu đầu ti', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu đầu ti', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>8c4001e7-b22b-4698-93f1-ab3b4c1d4ab7</t>
-        </is>
-      </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Ngực</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>[{'type': 'text', 'text': {'content': 'Treo cung', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Treo cung', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3569,17 +3718,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8f39c4f8-640e-40d9-8c26-52759475caa4</t>
+          <t>b81cc8c0-6ec7-48c4-ab93-c7a21b17c696</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-18T10:08:00.000Z</t>
+          <t>2024-05-17T15:10:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-05-28T15:05:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3592,7 +3741,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Up-m-c-M-8f39c4f8640e40d98c2652759475caa4</t>
+          <t>https://www.notion.so/C-t-ch-b81cc8c06ec748c4ab93c7a21b17c696</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3603,7 +3752,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3642,7 +3791,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -3660,7 +3809,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -3674,7 +3823,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>[{'id': '23ea044e-f385-412a-bdfb-58dfc32d274f'}]</t>
+          <t>[{'id': '63f07911-94d6-427e-914d-98763bdbdb2c'}, {'id': '14817148-9f7b-4e7d-a28f-2ea2ba8a7de5'}]</t>
         </is>
       </c>
       <c r="AB16" t="b">
@@ -3695,7 +3844,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>500000</v>
+      </c>
       <c r="AG16" t="inlineStr">
         <is>
           <t>sum</t>
@@ -3734,48 +3885,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>588fd4dd-39a9-4e01-8b0b-5756c660c905</t>
+        </is>
+      </c>
       <c r="AP16" t="inlineStr">
         <is>
+          <t>Hậu phẫu thuật</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Up mực Mỹ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Up mực Mỹ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cắt chỉ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt chỉ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3787,17 +3937,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>44a16666-eb90-4688-b096-d3ae103bf9b7</t>
+          <t>e52a4e9e-4dce-4299-b01e-df3a7908b8bf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-18T10:01:00.000Z</t>
+          <t>2024-05-17T15:08:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-05-28T15:05:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3810,7 +3960,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Treo-cung-44a16666eb904688b096d3ae103bf9b7</t>
+          <t>https://www.notion.so/B-o-h-nh-e52a4e9e4dce4299b01edf3a7908b8bf</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3821,7 +3971,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3878,122 +4028,123 @@
         </is>
       </c>
       <c r="X17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>hBL%3B</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>[{'id': '9f6152ed-b45d-497b-8b20-26e4aa8f8d13'}, {'id': '6119fc9d-8be4-4965-a2c5-46fb62cc40ac'}, {'id': '82f6ff28-9cfc-46aa-8d9e-df3d5c895da0'}]</t>
+        </is>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>l%40E~</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>mTNk</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK17" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>ul%5CC</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>588fd4dd-39a9-4e01-8b0b-5756c660c905</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>Hậu phẫu thuật</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>vrCq</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
         <v>50000</v>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>hBL%3B</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>[{'id': '8495c8de-8b3c-49b7-a595-da1307b4576f'}, {'id': '45183006-5603-42d6-a5bf-0b84f7b03e93'}, {'id': '8c78214c-0902-4e61-a4c3-ac0cbc1da84e'}]</t>
-        </is>
-      </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>l%40E~</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>mTNk</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AK17" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>ul%5CC</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>vrCq</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Treo cung', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Treo cung', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>8c4001e7-b22b-4698-93f1-ab3b4c1d4ab7</t>
-        </is>
-      </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Ngực</t>
-        </is>
-      </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>[{'type': 'text', 'text': {'content': 'Bảo hành', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bảo hành', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4156,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b81cc8c0-6ec7-48c4-ab93-c7a21b17c696</t>
+          <t>95fe288f-ea82-4829-8359-9fdf84594e36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-17T15:10:00.000Z</t>
+          <t>2024-05-17T14:52:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:06:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4028,7 +4179,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-t-ch-b81cc8c06ec748c4ab93c7a21b17c696</t>
+          <t>https://www.notion.so/H-t-m-b-p-tay-95fe288fea82482983599fdf84594e36</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4078,7 +4229,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -4096,7 +4247,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
@@ -4110,7 +4261,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>[{'id': '63f07911-94d6-427e-914d-98763bdbdb2c'}, {'id': '14817148-9f7b-4e7d-a28f-2ea2ba8a7de5'}]</t>
+          <t>[{'id': '35bb7b29-6a78-43bd-b01a-667af01eb960'}, {'id': '7148bdb2-29f5-42e3-8e57-8f4387c249c4'}, {'id': '87b7e709-2a93-4160-913f-c56debdaf767'}]</t>
         </is>
       </c>
       <c r="AB18" t="b">
@@ -4131,7 +4282,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>58000000</v>
+      </c>
       <c r="AG18" t="inlineStr">
         <is>
           <t>sum</t>
@@ -4153,7 +4306,7 @@
         </is>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -4170,48 +4323,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP18" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cắt chỉ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt chỉ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>588fd4dd-39a9-4e01-8b0b-5756c660c905</t>
-        </is>
-      </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Hậu phẫu thuật</t>
-        </is>
-      </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>orange</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ bắp tay', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ bắp tay', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4223,17 +4375,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>e52a4e9e-4dce-4299-b01e-df3a7908b8bf</t>
+          <t>65cf5987-9861-48db-bb71-b57c934d6a4b</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-05-17T15:08:00.000Z</t>
+          <t>2024-05-17T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:06:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4246,7 +4398,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-o-h-nh-e52a4e9e4dce4299b01edf3a7908b8bf</t>
+          <t>https://www.notion.so/H-t-m-b-ng-65cf5987986148dbbb71b57c934d6a4b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4296,7 +4448,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -4314,7 +4466,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
@@ -4328,7 +4480,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>[{'id': '9f6152ed-b45d-497b-8b20-26e4aa8f8d13'}, {'id': '6119fc9d-8be4-4965-a2c5-46fb62cc40ac'}, {'id': '82f6ff28-9cfc-46aa-8d9e-df3d5c895da0'}]</t>
+          <t>[{'id': 'fbca9efb-f202-4de0-9f17-93e28f8afd29'}, {'id': 'b48d78b6-e5a5-4ddd-b890-a8340a251332'}]</t>
         </is>
       </c>
       <c r="AB19" t="b">
@@ -4349,7 +4501,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>83000000</v>
+      </c>
       <c r="AG19" t="inlineStr">
         <is>
           <t>sum</t>
@@ -4371,7 +4525,7 @@
         </is>
       </c>
       <c r="AK19" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4388,48 +4542,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP19" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR19" t="n">
-        <v>50000</v>
-      </c>
       <c r="AS19" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bảo hành', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bảo hành', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>588fd4dd-39a9-4e01-8b0b-5756c660c905</t>
-        </is>
-      </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Hậu phẫu thuật</t>
-        </is>
-      </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>orange</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ bụng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ bụng', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4594,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>95fe288f-ea82-4829-8359-9fdf84594e36</t>
+          <t>86e95925-bfcc-4336-b28f-66bf8c6b30c5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-17T14:52:00.000Z</t>
+          <t>2024-05-17T14:15:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4464,7 +4617,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/H-t-m-b-p-tay-95fe288fea82482983599fdf84594e36</t>
+          <t>https://www.notion.so/T-o-h-nh-m-i-tr-i-tim-86e95925bfcc4336b28f66bf8c6b30c5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4514,7 +4667,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -4532,7 +4685,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
@@ -4546,7 +4699,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>[{'id': '35bb7b29-6a78-43bd-b01a-667af01eb960'}, {'id': '7148bdb2-29f5-42e3-8e57-8f4387c249c4'}, {'id': '87b7e709-2a93-4160-913f-c56debdaf767'}]</t>
+          <t>[{'id': '9551878c-8651-45de-bda9-926ba7f27e30'}, {'id': 'c0071187-3b60-44ea-aab8-bee889b97e59'}]</t>
         </is>
       </c>
       <c r="AB20" t="b">
@@ -4567,7 +4720,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>18900000</v>
+      </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>sum</t>
@@ -4589,7 +4744,7 @@
         </is>
       </c>
       <c r="AK20" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4606,48 +4761,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP20" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
       <c r="AS20" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ bắp tay', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ bắp tay', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>1272f84f-63be-4c7a-b775-dc6ebf245967</t>
-        </is>
-      </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Hút mỡ</t>
-        </is>
-      </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>brown</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tạo hình môi trái tim', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tạo hình môi trái tim', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4659,17 +4813,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>65cf5987-9861-48db-bb71-b57c934d6a4b</t>
+          <t>c926f817-43c4-4bd6-b151-4af2f9786bea</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-17T14:18:00.000Z</t>
+          <t>2024-05-17T14:13:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4682,7 +4836,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/H-t-m-b-ng-65cf5987986148dbbb71b57c934d6a4b</t>
+          <t>https://www.notion.so/Ti-m-m-i-c926f81743c44bd6b1514af2f9786bea</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4732,7 +4886,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -4750,7 +4904,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
@@ -4764,7 +4918,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>[{'id': 'fbca9efb-f202-4de0-9f17-93e28f8afd29'}, {'id': 'b48d78b6-e5a5-4ddd-b890-a8340a251332'}]</t>
+          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}, {'id': '503b09d8-4792-400c-813e-5e23f48e9ef5'}, {'id': '13361e13-7cde-45f4-bc92-fbce7d440fb6'}, {'id': '29662fbe-635c-4bcc-bc10-4c611a458cc8'}]</t>
         </is>
       </c>
       <c r="AB21" t="b">
@@ -4785,7 +4939,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>23800000</v>
+      </c>
       <c r="AG21" t="inlineStr">
         <is>
           <t>sum</t>
@@ -4807,7 +4963,7 @@
         </is>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4824,48 +4980,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP21" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hút mỡ bụng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hút mỡ bụng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>1272f84f-63be-4c7a-b775-dc6ebf245967</t>
-        </is>
-      </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Hút mỡ</t>
-        </is>
-      </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>brown</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm môi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4877,17 +5032,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>86e95925-bfcc-4336-b28f-66bf8c6b30c5</t>
+          <t>a1258434-60a3-4fd0-b3de-ee5db94dcdb9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-05-17T14:15:00.000Z</t>
+          <t>2024-05-17T13:57:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-17T12:08:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4900,7 +5055,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/T-o-h-nh-m-i-tr-i-tim-86e95925bfcc4336b28f66bf8c6b30c5</t>
+          <t>https://www.notion.so/Thu-c-nh-m-i-a125843460a34fd0b3deee5db94dcdb9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4968,7 +5123,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
@@ -4982,7 +5137,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>[{'id': '9551878c-8651-45de-bda9-926ba7f27e30'}, {'id': 'c0071187-3b60-44ea-aab8-bee889b97e59'}]</t>
+          <t>[{'id': '9c77e551-4f42-4917-a1dc-d11b9e2fb45c'}, {'id': '507731ab-6350-4d0e-b400-6c26727b8695'}]</t>
         </is>
       </c>
       <c r="AB22" t="b">
@@ -5003,7 +5158,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>7000000</v>
+      </c>
       <c r="AG22" t="inlineStr">
         <is>
           <t>sum</t>
@@ -5025,7 +5182,7 @@
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -5042,48 +5199,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
+        </is>
+      </c>
       <c r="AP22" t="inlineStr">
         <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tạo hình môi trái tim', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tạo hình môi trái tim', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>b7b08855-a1ef-4ddf-8fc4-edb6ce985887</t>
-        </is>
-      </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Môi</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thu cánh mũi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu cánh mũi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5095,17 +5251,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>c926f817-43c4-4bd6-b151-4af2f9786bea</t>
+          <t>31b50c8d-0bb0-498b-a618-08bd11839ead</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-05-17T14:13:00.000Z</t>
+          <t>2024-05-17T13:43:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-05-28T15:06:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5118,7 +5274,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-m-i-c926f81743c44bd6b1514af2f9786bea</t>
+          <t>https://www.notion.so/Nu-i-ru-i-31b50c8d0bb0498ba61808bd11839ead</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5168,7 +5324,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -5200,7 +5356,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}]</t>
+          <t>[{'id': 'b127c463-053c-4ce5-922a-8eb073b7c973'}]</t>
         </is>
       </c>
       <c r="AB23" t="b">
@@ -5221,7 +5377,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>700000</v>
+      </c>
       <c r="AG23" t="inlineStr">
         <is>
           <t>sum</t>
@@ -5243,7 +5401,7 @@
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -5260,48 +5418,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
+        </is>
+      </c>
       <c r="AP23" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm môi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>b7b08855-a1ef-4ddf-8fc4-edb6ce985887</t>
-        </is>
-      </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Môi</t>
-        </is>
-      </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nuối ruồi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nuối ruồi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5313,17 +5470,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a1258434-60a3-4fd0-b3de-ee5db94dcdb9</t>
+          <t>9b5fc280-7114-4fd6-ac3c-28f3042a8b40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-17T13:57:00.000Z</t>
+          <t>2024-05-17T08:26:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5336,7 +5493,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Thu-c-nh-m-i-a125843460a34fd0b3deee5db94dcdb9</t>
+          <t>https://www.notion.so/Ti-m-botox-9b5fc28071144fd6ac3c28f3042a8b40</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5386,7 +5543,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -5404,7 +5561,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
@@ -5418,7 +5575,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>[{'id': '9c77e551-4f42-4917-a1dc-d11b9e2fb45c'}]</t>
+          <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}, {'id': 'ca9921a2-bef2-4bd9-908b-8e0357dd8abb'}, {'id': 'c82cd687-0a71-42c7-bce0-8598aa9c8149'}]</t>
         </is>
       </c>
       <c r="AB24" t="b">
@@ -5439,7 +5596,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr"/>
+      <c r="AF24" t="n">
+        <v>14700000</v>
+      </c>
       <c r="AG24" t="inlineStr">
         <is>
           <t>sum</t>
@@ -5461,7 +5620,7 @@
         </is>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5478,48 +5637,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP24" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thu cánh mũi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thu cánh mũi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX24" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm botox', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm botox', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5531,12 +5689,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31b50c8d-0bb0-498b-a618-08bd11839ead</t>
+          <t>de31c647-d651-46c0-a20f-131216dd3e46</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-17T13:43:00.000Z</t>
+          <t>2024-05-17T08:25:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5554,7 +5712,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nu-i-ru-i-31b50c8d0bb0498ba61808bd11839ead</t>
+          <t>https://www.notion.so/L-m-c-b-de31c647d65146c0a20f131216dd3e46</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5604,7 +5762,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -5622,7 +5780,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
@@ -5636,7 +5794,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>[{'id': 'b127c463-053c-4ce5-922a-8eb073b7c973'}]</t>
+          <t>[{'id': '26e8c796-39c0-45e7-be49-77bc0e11a3a4'}, {'id': 'c70fbd97-6b34-4dd1-a868-faf313d1fbea'}]</t>
         </is>
       </c>
       <c r="AB25" t="b">
@@ -5657,7 +5815,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>60000000</v>
+      </c>
       <c r="AG25" t="inlineStr">
         <is>
           <t>sum</t>
@@ -5679,7 +5839,7 @@
         </is>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5696,48 +5856,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>fcb44cfd-eb8c-4b6b-ab75-7d8929f8ffff</t>
+        </is>
+      </c>
       <c r="AP25" t="inlineStr">
         <is>
+          <t>Cô bé</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nuối ruồi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nuối ruồi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV25" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX25" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Làm cô bé', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Làm cô bé', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5749,17 +5908,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9b5fc280-7114-4fd6-ac3c-28f3042a8b40</t>
+          <t>28f84581-e3dc-494f-8903-11425dcf396f</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-05-17T08:26:00.000Z</t>
+          <t>2024-05-13T13:43:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-16T08:21:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5772,7 +5931,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-botox-9b5fc28071144fd6ac3c28f3042a8b40</t>
+          <t>https://www.notion.so/C-ng-da-th-i-d-ng-28f84581e3dc494f890311425dcf396f</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5822,7 +5981,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -5840,7 +5999,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
@@ -5854,7 +6013,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}]</t>
+          <t>[{'id': '8d50844c-bff4-4273-a151-5949e2946f0a'}, {'id': 'be5d12c8-95ab-4b72-9d6e-9fb9101c4825'}, {'id': '61d88a60-a475-42e4-89ad-4ed1db989f08'}]</t>
         </is>
       </c>
       <c r="AB26" t="b">
@@ -5875,7 +6034,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>76000000</v>
+      </c>
       <c r="AG26" t="inlineStr">
         <is>
           <t>sum</t>
@@ -5897,7 +6058,7 @@
         </is>
       </c>
       <c r="AK26" t="n">
-        <v>1500000</v>
+        <v>25000000</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5914,48 +6075,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP26" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
       <c r="AS26" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm botox', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm botox', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV26" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX26" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Căng da thái dương', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Căng da thái dương', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5967,17 +6127,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>de31c647-d651-46c0-a20f-131216dd3e46</t>
+          <t>c92ebcd9-938d-4c1c-a3d9-6b2c8f79b9a6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-05-17T08:25:00.000Z</t>
+          <t>2024-05-13T13:25:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-17T12:12:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5990,7 +6150,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-c-b-de31c647d65146c0a20f131216dd3e46</t>
+          <t>https://www.notion.so/i-u-kh-c-m-y-c92ebcd9938d4c1ca3d96b2c8f79b9a6</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -6040,7 +6200,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -6058,7 +6218,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
@@ -6072,7 +6232,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>[{'id': '26e8c796-39c0-45e7-be49-77bc0e11a3a4'}, {'id': 'c70fbd97-6b34-4dd1-a868-faf313d1fbea'}]</t>
+          <t>[{'id': 'fad5cfe0-955f-4389-8131-538a4e30302c'}, {'id': '6166a239-87e8-4188-b05c-99a37220e320'}, {'id': 'beac56a0-ac4b-418f-9902-f28f0fa3e9cd'}, {'id': 'ffe334e6-c632-4e45-bf69-a05e7d01f091'}, {'id': 'c40895fc-0803-4bbc-b6d9-986a52648013'}, {'id': '44516b3b-ec95-451b-b407-afd3979e13e1'}, {'id': '5b507fed-b144-4730-8609-0b30178b547a'}, {'id': '0b5d9c77-6b8b-410a-a9f8-0cd6e3839910'}, {'id': '193aec18-84ce-4fa2-b206-45749f3677d4'}, {'id': '82140858-4a5f-4712-869b-77d9b732c77d'}, {'id': '4796904d-04d7-4511-9678-3fc13f458e73'}, {'id': '2d492137-eb7e-4a52-8434-e8874fc53bdd'}, {'id': 'e0f78fa9-5775-465f-9b1c-c9bede7bafa8'}, {'id': 'c94d9580-18b4-445a-8b4e-38c1a48b6848'}, {'id': 'abab6cb7-595b-4003-a934-6600f5f1a277'}, {'id': '10921285-05e9-4393-aa3b-b546d16e1380'}, {'id': '64061d9e-e676-4e4b-ba84-e6597caeb395'}, {'id': '32523a58-6b4d-4913-9da9-62ab9aa53bcb'}, {'id': '93f73cc0-3070-4c51-96eb-2b5fce5c18a2'}, {'id': '3da3c561-467a-4415-8cbb-19279070c682'}]</t>
         </is>
       </c>
       <c r="AB27" t="b">
@@ -6093,7 +6253,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr"/>
+      <c r="AF27" t="n">
+        <v>44200000</v>
+      </c>
       <c r="AG27" t="inlineStr">
         <is>
           <t>sum</t>
@@ -6115,7 +6277,7 @@
         </is>
       </c>
       <c r="AK27" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -6132,48 +6294,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>8c20c3e1-370f-4be1-b533-8716cb78184c</t>
+        </is>
+      </c>
       <c r="AP27" t="inlineStr">
         <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
       <c r="AS27" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Làm cô bé', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Làm cô bé', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV27" t="inlineStr">
-        <is>
-          <t>fcb44cfd-eb8c-4b6b-ab75-7d8929f8ffff</t>
-        </is>
-      </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Cô bé</t>
-        </is>
-      </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>gray</t>
+          <t>[{'type': 'text', 'text': {'content': 'Điêu khắc mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Điêu khắc mày', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6185,17 +6346,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28f84581-e3dc-494f-8903-11425dcf396f</t>
+          <t>ebc54d50-58b9-4fa4-bd2f-c4fb9bd95874</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-05-13T13:43:00.000Z</t>
+          <t>2024-05-13T13:21:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6208,7 +6369,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-ng-da-th-i-d-ng-28f84581e3dc494f890311425dcf396f</t>
+          <t>https://www.notion.so/C-t-m-t-ph-ng-ebc54d5058b94fa4bd2fc4fb9bd95874</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6258,7 +6419,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -6290,7 +6451,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>[{'id': '8d50844c-bff4-4273-a151-5949e2946f0a'}, {'id': 'be5d12c8-95ab-4b72-9d6e-9fb9101c4825'}, {'id': '61d88a60-a475-42e4-89ad-4ed1db989f08'}]</t>
+          <t>[{'id': '59b69bc3-22b7-4b29-9450-64b83ca70a98'}]</t>
         </is>
       </c>
       <c r="AB28" t="b">
@@ -6311,7 +6472,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>8000000</v>
+      </c>
       <c r="AG28" t="inlineStr">
         <is>
           <t>sum</t>
@@ -6333,7 +6496,7 @@
         </is>
       </c>
       <c r="AK28" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -6350,48 +6513,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP28" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
       <c r="AS28" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Căng da thái dương', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Căng da thái dương', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV28" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX28" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cắt mắt phượng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt mắt phượng', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6403,17 +6565,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>c92ebcd9-938d-4c1c-a3d9-6b2c8f79b9a6</t>
+          <t>57459270-b6fa-4b0c-bde9-8d25688557dd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-05-13T13:25:00.000Z</t>
+          <t>2024-05-13T13:18:00.000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6426,7 +6588,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/i-u-kh-c-m-y-c92ebcd9938d4c1ca3d96b2c8f79b9a6</t>
+          <t>https://www.notion.so/M-g-c-m-t-57459270b6fa4b0cbde98d25688557dd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6476,7 +6638,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -6494,7 +6656,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
@@ -6508,7 +6670,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>[{'id': 'fad5cfe0-955f-4389-8131-538a4e30302c'}, {'id': '6166a239-87e8-4188-b05c-99a37220e320'}, {'id': 'beac56a0-ac4b-418f-9902-f28f0fa3e9cd'}, {'id': 'ffe334e6-c632-4e45-bf69-a05e7d01f091'}, {'id': 'c40895fc-0803-4bbc-b6d9-986a52648013'}, {'id': '44516b3b-ec95-451b-b407-afd3979e13e1'}, {'id': '5b507fed-b144-4730-8609-0b30178b547a'}, {'id': '0b5d9c77-6b8b-410a-a9f8-0cd6e3839910'}, {'id': '193aec18-84ce-4fa2-b206-45749f3677d4'}, {'id': '82140858-4a5f-4712-869b-77d9b732c77d'}, {'id': '4796904d-04d7-4511-9678-3fc13f458e73'}, {'id': '2d492137-eb7e-4a52-8434-e8874fc53bdd'}, {'id': 'e0f78fa9-5775-465f-9b1c-c9bede7bafa8'}, {'id': 'c94d9580-18b4-445a-8b4e-38c1a48b6848'}, {'id': 'abab6cb7-595b-4003-a934-6600f5f1a277'}, {'id': '10921285-05e9-4393-aa3b-b546d16e1380'}, {'id': '64061d9e-e676-4e4b-ba84-e6597caeb395'}]</t>
+          <t>[{'id': 'd0ea2871-65bd-47bf-9203-7de1d77ed91e'}, {'id': 'b704a0ef-5a90-4ec1-92fa-3b889937347b'}, {'id': '6d613630-ae9d-4877-8c65-fce6533a0854'}, {'id': 'ff719add-5de4-4d2e-8783-f5388f9e105d'}]</t>
         </is>
       </c>
       <c r="AB29" t="b">
@@ -6529,7 +6691,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>20000000</v>
+      </c>
       <c r="AG29" t="inlineStr">
         <is>
           <t>sum</t>
@@ -6551,7 +6715,7 @@
         </is>
       </c>
       <c r="AK29" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6568,48 +6732,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP29" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
       <c r="AS29" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Điêu khắc mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Điêu khắc mày', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV29" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX29" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mở góc mắt', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mở góc mắt', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6621,17 +6784,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ebc54d50-58b9-4fa4-bd2f-c4fb9bd95874</t>
+          <t>518ddeb4-c722-4b5d-8353-f87f0f4208ef</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-05-13T13:21:00.000Z</t>
+          <t>2024-05-13T13:17:00.000Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-16T08:29:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6644,7 +6807,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-t-m-t-ph-ng-ebc54d5058b94fa4bd2fc4fb9bd95874</t>
+          <t>https://www.notion.so/Ti-m-tan-m-m-518ddeb4c7224b5d8353f87f0f4208ef</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6694,7 +6857,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -6712,7 +6875,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
@@ -6726,7 +6889,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>[{'id': '59b69bc3-22b7-4b29-9450-64b83ca70a98'}]</t>
+          <t>[{'id': '79c78e4a-c5c8-4866-a90e-754f6125c3be'}, {'id': 'f9793920-248a-4886-b3d5-6109b29ff9d8'}]</t>
         </is>
       </c>
       <c r="AB30" t="b">
@@ -6747,7 +6910,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>2500000</v>
+      </c>
       <c r="AG30" t="inlineStr">
         <is>
           <t>sum</t>
@@ -6786,48 +6951,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP30" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
       <c r="AS30" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr">
+      <c r="AV30" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cắt mắt phượng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt mắt phượng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV30" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX30" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm tan mỡ má', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm tan mỡ má', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6839,17 +7003,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>57459270-b6fa-4b0c-bde9-8d25688557dd</t>
+          <t>b4480d9a-bf48-4d8f-ba30-ce58fac5013d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-05-13T13:18:00.000Z</t>
+          <t>2024-05-13T12:50:00.000Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6862,7 +7026,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/M-g-c-m-t-57459270b6fa4b0cbde98d25688557dd</t>
+          <t>https://www.notion.so/Ti-m-Meso-b4480d9abf484d8fba30ce58fac5013d</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6912,7 +7076,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -6930,7 +7094,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
@@ -6944,7 +7108,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>[{'id': 'd0ea2871-65bd-47bf-9203-7de1d77ed91e'}, {'id': 'b704a0ef-5a90-4ec1-92fa-3b889937347b'}, {'id': '6d613630-ae9d-4877-8c65-fce6533a0854'}]</t>
+          <t>[{'id': '5d95033b-290a-46e6-bce0-a350692e854a'}]</t>
         </is>
       </c>
       <c r="AB31" t="b">
@@ -6965,7 +7129,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>8000000</v>
+      </c>
       <c r="AG31" t="inlineStr">
         <is>
           <t>sum</t>
@@ -7004,48 +7170,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP31" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
       <c r="AS31" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr">
+      <c r="AV31" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mở góc mắt', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mở góc mắt', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV31" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX31" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm Meso', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm Meso', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7057,17 +7222,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>518ddeb4-c722-4b5d-8353-f87f0f4208ef</t>
+          <t>6f7ff8a3-d6c4-41bd-9ac8-2705817f20a8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-05-13T13:17:00.000Z</t>
+          <t>2024-05-13T12:39:00.000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-07-17T12:08:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -7080,7 +7245,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-tan-m-m-518ddeb4c7224b5d8353f87f0f4208ef</t>
+          <t>https://www.notion.so/C-y-trung-b-m-i-6f7ff8a3d6c441bd9ac82705817f20a8</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -7130,7 +7295,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -7148,7 +7313,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
@@ -7162,7 +7327,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>[{'id': '79c78e4a-c5c8-4866-a90e-754f6125c3be'}, {'id': 'f9793920-248a-4886-b3d5-6109b29ff9d8'}]</t>
+          <t>[{'id': '7e351479-9e9b-4387-9ce5-e5723c48d43a'}, {'id': '4b7db812-7aff-4450-ae16-571fdeac96c0'}, {'id': '414e976b-d55a-4292-b168-01b8059adb9b'}]</t>
         </is>
       </c>
       <c r="AB32" t="b">
@@ -7183,7 +7348,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>23000000</v>
+      </c>
       <c r="AG32" t="inlineStr">
         <is>
           <t>sum</t>
@@ -7205,7 +7372,7 @@
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -7222,48 +7389,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
+        </is>
+      </c>
       <c r="AP32" t="inlineStr">
         <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
       <c r="AS32" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr">
+      <c r="AV32" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm tan mỡ má', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm tan mỡ má', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV32" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX32" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cấy trung bì mũi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cấy trung bì mũi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7275,17 +7441,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>b4480d9a-bf48-4d8f-ba30-ce58fac5013d</t>
+          <t>ebeca77b-a7ec-442a-acf9-60cd9405340e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-05-13T12:50:00.000Z</t>
+          <t>2024-05-13T09:22:00.000Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-07-17T12:08:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7298,7 +7464,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-Meso-b4480d9abf484d8fba30ce58fac5013d</t>
+          <t>https://www.notion.so/Th-o-m-i-b-c-c-ng-c-ebeca77ba7ec442aacf960cd9405340e</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7366,7 +7532,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
@@ -7380,7 +7546,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>[{'id': '5d95033b-290a-46e6-bce0-a350692e854a'}]</t>
+          <t>[{'id': '400146bf-f0d2-43ad-945a-bb045c199e83'}]</t>
         </is>
       </c>
       <c r="AB33" t="b">
@@ -7401,7 +7567,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr"/>
+      <c r="AF33" t="n">
+        <v>1500000</v>
+      </c>
       <c r="AG33" t="inlineStr">
         <is>
           <t>sum</t>
@@ -7440,48 +7608,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
+        </is>
+      </c>
       <c r="AP33" t="inlineStr">
         <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
       <c r="AS33" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr">
+      <c r="AV33" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm Meso', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm Meso', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV33" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX33" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tháo mũi bọc căng cơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháo mũi bọc căng cơ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7493,17 +7660,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6f7ff8a3-d6c4-41bd-9ac8-2705817f20a8</t>
+          <t>1dbed88f-6afd-41a9-943c-4cf9ee98968e</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-05-13T12:39:00.000Z</t>
+          <t>2024-05-13T05:41:00.000Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7516,7 +7683,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-y-trung-b-m-i-6f7ff8a3d6c441bd9ac82705817f20a8</t>
+          <t>https://www.notion.so/C-t-m-i-1dbed88f6afd41a9943c4cf9ee98968e</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7584,7 +7751,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
@@ -7598,7 +7765,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>[{'id': '7e351479-9e9b-4387-9ce5-e5723c48d43a'}, {'id': '4b7db812-7aff-4450-ae16-571fdeac96c0'}, {'id': '414e976b-d55a-4292-b168-01b8059adb9b'}]</t>
+          <t>[{'id': 'bc9c1ed9-5b1e-47b3-84d3-d435eb7a5b67'}, {'id': 'ffe4869d-4f42-4b16-be46-337c6237daa6'}, {'id': '6e685a9e-dd27-494d-8308-fbea23aa0376'}]</t>
         </is>
       </c>
       <c r="AB34" t="b">
@@ -7619,7 +7786,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>15300000</v>
+      </c>
       <c r="AG34" t="inlineStr">
         <is>
           <t>sum</t>
@@ -7641,7 +7810,7 @@
         </is>
       </c>
       <c r="AK34" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7658,48 +7827,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP34" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
       <c r="AS34" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cấy trung bì mũi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cấy trung bì mũi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV34" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX34" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cắt môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt môi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7711,17 +7879,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ebeca77b-a7ec-442a-acf9-60cd9405340e</t>
+          <t>c6e90df1-583f-4243-8476-a18f06f08034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-05-13T09:22:00.000Z</t>
+          <t>2024-05-13T05:28:00.000Z</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7734,7 +7902,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-o-m-i-b-c-c-ng-c-ebeca77ba7ec442aacf960cd9405340e</t>
+          <t>https://www.notion.so/Ti-m-c-m-c6e90df1583f42438476a18f06f08034</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7784,7 +7952,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -7802,7 +7970,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
@@ -7816,7 +7984,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>[{'id': '400146bf-f0d2-43ad-945a-bb045c199e83'}]</t>
+          <t>[{'id': '9710180c-11ab-4697-bd65-bc5bc6be0fa6'}, {'id': '946c11fc-ceaf-47d8-bf04-f50a03e741bb'}, {'id': '0cc71c84-16a1-41dd-98f4-bb6829014155'}, {'id': '999f7a1a-951e-4ec9-b9bf-0ee7b79b32b4'}, {'id': '6f2705c2-4b83-4320-b7dc-ab284a15c675'}]</t>
         </is>
       </c>
       <c r="AB35" t="b">
@@ -7837,7 +8005,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>12098000</v>
+      </c>
       <c r="AG35" t="inlineStr">
         <is>
           <t>sum</t>
@@ -7859,7 +8029,7 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1498000</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7876,48 +8046,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP35" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
       <c r="AS35" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AV35" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tháo mũi bọc căng cơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháo mũi bọc căng cơ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV35" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX35" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiềm cằm', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiềm cằm', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7929,17 +8098,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1dbed88f-6afd-41a9-943c-4cf9ee98968e</t>
+          <t>423a8fa3-aeef-4fd9-bddf-093fe8d7a541</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-05-13T05:41:00.000Z</t>
+          <t>2024-05-13T05:25:00.000Z</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7952,7 +8121,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-t-m-i-1dbed88f6afd41a9943c4cf9ee98968e</t>
+          <t>https://www.notion.so/Ti-m-r-nh-c-i-423a8fa3aeef4fd9bddf093fe8d7a541</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -8002,7 +8171,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -8020,7 +8189,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
@@ -8034,7 +8203,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>[{'id': 'bc9c1ed9-5b1e-47b3-84d3-d435eb7a5b67'}, {'id': 'ffe4869d-4f42-4b16-be46-337c6237daa6'}, {'id': '6e685a9e-dd27-494d-8308-fbea23aa0376'}]</t>
+          <t>[{'id': '3f767403-6671-4bac-92fb-45d9eea51569'}]</t>
         </is>
       </c>
       <c r="AB36" t="b">
@@ -8055,7 +8224,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>3000000</v>
+      </c>
       <c r="AG36" t="inlineStr">
         <is>
           <t>sum</t>
@@ -8077,7 +8248,7 @@
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -8094,48 +8265,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP36" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
       <c r="AS36" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cắt môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt môi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV36" t="inlineStr">
-        <is>
-          <t>b7b08855-a1ef-4ddf-8fc4-edb6ce985887</t>
-        </is>
-      </c>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Môi</t>
-        </is>
-      </c>
-      <c r="AX36" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm rãnh cười', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm rãnh cười', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8147,17 +8317,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>c6e90df1-583f-4243-8476-a18f06f08034</t>
+          <t>c24f74d7-5d1b-417d-bede-4df278f35f43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-05-13T05:28:00.000Z</t>
+          <t>2024-05-13T05:22:00.000Z</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-05-28T15:06:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -8170,7 +8340,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-c-m-c6e90df1583f42438476a18f06f08034</t>
+          <t>https://www.notion.so/L-m-m-L-m-c24f74d75d1b417dbede4df278f35f43</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -8220,7 +8390,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -8238,7 +8408,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
@@ -8252,7 +8422,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>[{'id': '9710180c-11ab-4697-bd65-bc5bc6be0fa6'}, {'id': '946c11fc-ceaf-47d8-bf04-f50a03e741bb'}, {'id': '0cc71c84-16a1-41dd-98f4-bb6829014155'}, {'id': '999f7a1a-951e-4ec9-b9bf-0ee7b79b32b4'}, {'id': '6f2705c2-4b83-4320-b7dc-ab284a15c675'}]</t>
+          <t>[{'id': '0047220f-aae8-4ad7-b079-971e004acfd3'}, {'id': '1260266f-900f-4307-a3f4-98ae5f2b10de'}]</t>
         </is>
       </c>
       <c r="AB37" t="b">
@@ -8273,7 +8443,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>4000000</v>
+      </c>
       <c r="AG37" t="inlineStr">
         <is>
           <t>sum</t>
@@ -8295,7 +8467,7 @@
         </is>
       </c>
       <c r="AK37" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -8312,48 +8484,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
+        </is>
+      </c>
       <c r="AP37" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
       <c r="AS37" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AV37" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiềm cằm', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiềm cằm', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV37" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX37" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Làm má Lúm', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Làm má Lúm', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8365,17 +8536,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>423a8fa3-aeef-4fd9-bddf-093fe8d7a541</t>
+          <t>18d4e1b4-962d-47f0-8fcb-0dd4a8390f06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-05-13T05:25:00.000Z</t>
+          <t>2024-05-12T18:48:00.000Z</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-07-17T12:08:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8388,7 +8559,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-r-nh-c-i-423a8fa3aeef4fd9bddf093fe8d7a541</t>
+          <t>https://www.notion.so/N-ng-M-i-D-ng-Tr-18d4e1b4962d47f08fcb0dd4a8390f06</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8438,7 +8609,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -8456,7 +8627,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
@@ -8470,7 +8641,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>[{'id': '3f767403-6671-4bac-92fb-45d9eea51569'}]</t>
+          <t>[{'id': '71aab04b-8e7d-4b45-82a7-365e047a8ff7'}, {'id': '09097cc4-d9c9-49e7-b59b-34db40174c1f'}, {'id': '48f2dd44-77eb-4d9b-81bf-ceb676928c26'}, {'id': '99f3d772-0835-435d-a15b-afc2490ce7e1'}, {'id': '684957fb-51b0-4d83-b824-b5884eac006b'}, {'id': 'a234ac1f-45b8-4245-bfc3-ea432cc28a98'}, {'id': '7343e495-1d9c-41ee-aba8-d07c088d83a8'}, {'id': '3088dbc8-858e-42a5-b77c-38d7a0714ad5'}, {'id': 'f2bf7674-0256-47b1-9d69-24107ce59648'}, {'id': '72244e5a-0ddb-41ff-b0d8-c74591204505'}, {'id': '5c481fec-4041-4efe-9bc8-2212e0b926e4'}, {'id': '27d5140e-52e1-4bb0-beac-689460b79910'}, {'id': '40abba10-4b6e-44a7-97e2-68153bf3da52'}]</t>
         </is>
       </c>
       <c r="AB38" t="b">
@@ -8491,7 +8662,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>409500000</v>
+      </c>
       <c r="AG38" t="inlineStr">
         <is>
           <t>sum</t>
@@ -8513,7 +8686,7 @@
         </is>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -8530,48 +8703,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
+        </is>
+      </c>
       <c r="AP38" t="inlineStr">
         <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
       <c r="AS38" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT38" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr">
+      <c r="AV38" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU38" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm rãnh cười', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm rãnh cười', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV38" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX38" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nâng Mũi Dựng Trụ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng Mũi Dựng Trụ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8583,17 +8755,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>c24f74d7-5d1b-417d-bede-4df278f35f43</t>
+          <t>c74e9a1a-a515-4d57-851b-873d8ae67147</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-05-13T05:22:00.000Z</t>
+          <t>2024-05-12T18:33:00.000Z</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-16T08:55:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8606,7 +8778,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-m-L-m-c24f74d75d1b417dbede4df278f35f43</t>
+          <t>https://www.notion.so/Treo-sa-tr-c74e9a1aa5154d57851b873d8ae67147</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8656,7 +8828,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -8674,7 +8846,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
@@ -8688,7 +8860,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>[{'id': '0047220f-aae8-4ad7-b079-971e004acfd3'}, {'id': '1260266f-900f-4307-a3f4-98ae5f2b10de'}]</t>
+          <t>[{'id': '186b23a4-111f-41f4-a29b-ca598f7fd0ac'}, {'id': '8de36b5e-639f-4c5c-b487-1b68a5ab97f0'}, {'id': '2803091a-8471-49a9-8749-1a6a2566bf74'}, {'id': 'b721e0e0-32c2-4ed7-bf1d-ba86cf60ecf4'}, {'id': '90f78d89-ec58-4158-ad76-af2b3824af9e'}, {'id': '433d9fb4-cc16-443e-bba2-73df2db95740'}, {'id': 'a18c2d49-af6e-4157-82a8-63ae13c8eb24'}]</t>
         </is>
       </c>
       <c r="AB39" t="b">
@@ -8709,7 +8881,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>133000000</v>
+      </c>
       <c r="AG39" t="inlineStr">
         <is>
           <t>sum</t>
@@ -8731,7 +8905,7 @@
         </is>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8748,48 +8922,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP39" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
       <c r="AS39" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AV39" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU39" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Làm má Lúm', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Làm má Lúm', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX39" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Treo sa trễ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Treo sa trễ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8801,17 +8974,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>18d4e1b4-962d-47f0-8fcb-0dd4a8390f06</t>
+          <t>bc22b8e5-4a53-4537-aa22-0a0cf1420b70</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-05-12T18:48:00.000Z</t>
+          <t>2024-05-12T18:28:00.000Z</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8824,7 +8997,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/N-ng-M-i-D-ng-Tr-18d4e1b4962d47f08fcb0dd4a8390f06</t>
+          <t>https://www.notion.so/Ti-m-Filler-bc22b8e54a534537aa220a0cf1420b70</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8874,7 +9047,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -8892,7 +9065,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
@@ -8906,11 +9079,11 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>[{'id': '71aab04b-8e7d-4b45-82a7-365e047a8ff7'}, {'id': '09097cc4-d9c9-49e7-b59b-34db40174c1f'}, {'id': '48f2dd44-77eb-4d9b-81bf-ceb676928c26'}, {'id': '99f3d772-0835-435d-a15b-afc2490ce7e1'}, {'id': '684957fb-51b0-4d83-b824-b5884eac006b'}, {'id': 'a234ac1f-45b8-4245-bfc3-ea432cc28a98'}, {'id': '7343e495-1d9c-41ee-aba8-d07c088d83a8'}, {'id': '3088dbc8-858e-42a5-b77c-38d7a0714ad5'}, {'id': 'f2bf7674-0256-47b1-9d69-24107ce59648'}, {'id': '72244e5a-0ddb-41ff-b0d8-c74591204505'}, {'id': '5c481fec-4041-4efe-9bc8-2212e0b926e4'}, {'id': '27d5140e-52e1-4bb0-beac-689460b79910'}, {'id': '40abba10-4b6e-44a7-97e2-68153bf3da52'}]</t>
+          <t>[{'id': 'b9df2fce-492b-498b-b067-a37cf81c5af3'}, {'id': '8e0f6403-4802-4a6d-b5e6-6b5cd0c5cfae'}, {'id': '87f1567b-1d05-4c01-aae2-6973a3fc0ece'}, {'id': '81e2eed0-d998-493e-b9fa-c40f31738d79'}, {'id': '0f4feeca-7032-4c6e-b9dd-c8c3dc8ba4a2'}, {'id': '880b6707-ed6c-4b2f-ba79-dcb43caeaf23'}, {'id': '5896dc12-bec4-466d-b627-8587a3b5ac27'}, {'id': '162e26a3-bd09-4072-b55c-3bcab6c75acb'}, {'id': '8be8fc1a-22c1-40b3-b600-03ed257b3119'}, {'id': 'bd8ba619-95f9-4d0d-b325-f1260086c729'}, {'id': 'a9de9af4-4e2d-4d9b-ac38-757e2fbe7566'}, {'id': '02e96089-5b6d-4ac0-b25a-fe2a7137c837'}, {'id': '9cd3e5c3-01b4-4498-ba73-b4693cc02416'}, {'id': '28a20c47-9196-46c9-8c0c-15badbc6e438'}, {'id': '42c509bb-a91f-4e0c-b818-7550ad96e4a6'}, {'id': '71d57f57-3888-4835-b24c-ab452d521c80'}, {'id': '3cb49b64-4a48-4622-832b-50accc9c609b'}, {'id': '213db6ed-34fe-4b09-a7de-ddb1ef199326'}, {'id': '05374bdd-04d5-4a46-8c0a-c6024bdf35e0'}, {'id': 'b1d4d84a-8741-4017-a7ec-ef4b4ae38e85'}, {'id': '1b60deab-50df-48a9-9391-a30bd957411e'}, {'id': '874739ce-05a2-4e96-a3c5-30c04c5ca3ca'}, {'id': 'b2ed83a2-d597-4f95-85ab-6336c79ea09b'}, {'id': '706cc7a6-1ed4-4398-bc6d-0857f7f74320'}, {'id': '5e093c98-2979-480d-905e-de289dc6bd30'}]</t>
         </is>
       </c>
       <c r="AB40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -8927,7 +9100,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>204200000</v>
+      </c>
       <c r="AG40" t="inlineStr">
         <is>
           <t>sum</t>
@@ -8949,7 +9124,7 @@
         </is>
       </c>
       <c r="AK40" t="n">
-        <v>29000000</v>
+        <v>61000000</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8966,48 +9141,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP40" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR40" t="n">
-        <v>100000</v>
-      </c>
       <c r="AS40" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AV40" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nâng Mũi Dựng Trụ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng Mũi Dựng Trụ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV40" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX40" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm Filler', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm Filler', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9019,17 +9193,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>c74e9a1a-a515-4d57-851b-873d8ae67147</t>
+          <t>1b29b376-dc70-44b8-800b-c651443bcf3d</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-05-12T18:33:00.000Z</t>
+          <t>2024-05-12T18:23:00.000Z</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-05-28T15:08:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -9042,7 +9216,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Treo-sa-tr-c74e9a1aa5154d57851b873d8ae67147</t>
+          <t>https://www.notion.so/Nh-n-m-1b29b376dc7044b8800bc651443bcf3d</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -9092,7 +9266,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -9110,7 +9284,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
@@ -9124,7 +9298,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>[{'id': '186b23a4-111f-41f4-a29b-ca598f7fd0ac'}, {'id': '8de36b5e-639f-4c5c-b487-1b68a5ab97f0'}, {'id': '2803091a-8471-49a9-8749-1a6a2566bf74'}, {'id': 'b721e0e0-32c2-4ed7-bf1d-ba86cf60ecf4'}, {'id': '90f78d89-ec58-4158-ad76-af2b3824af9e'}, {'id': '433d9fb4-cc16-443e-bba2-73df2db95740'}, {'id': 'a18c2d49-af6e-4157-82a8-63ae13c8eb24'}]</t>
+          <t>[{'id': '83ff4f77-66d6-4524-8426-93e21517ac56'}]</t>
         </is>
       </c>
       <c r="AB41" t="b">
@@ -9145,7 +9319,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr"/>
+      <c r="AF41" t="n">
+        <v>2000000</v>
+      </c>
       <c r="AG41" t="inlineStr">
         <is>
           <t>sum</t>
@@ -9167,7 +9343,7 @@
         </is>
       </c>
       <c r="AK41" t="n">
-        <v>33000000</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -9184,48 +9360,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP41" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
       <c r="AS41" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr">
+      <c r="AV41" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Treo sa trễ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Treo sa trễ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
-        <is>
-          <t>8c4001e7-b22b-4698-93f1-ab3b4c1d4ab7</t>
-        </is>
-      </c>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Ngực</t>
-        </is>
-      </c>
-      <c r="AX41" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nhấn mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nhấn mí', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9237,17 +9412,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bc22b8e5-4a53-4537-aa22-0a0cf1420b70</t>
+          <t>fccfa659-feec-4f61-abcf-9f866b0c0f41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-05-12T18:28:00.000Z</t>
+          <t>2024-05-12T18:20:00.000Z</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-17T12:12:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -9260,7 +9435,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-Filler-bc22b8e54a534537aa220a0cf1420b70</t>
+          <t>https://www.notion.so/Phun-m-i-fccfa659feec4f61abcf9f866b0c0f41</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -9310,7 +9485,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -9328,7 +9503,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
@@ -9342,11 +9517,11 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>[{'id': 'b9df2fce-492b-498b-b067-a37cf81c5af3'}, {'id': '8e0f6403-4802-4a6d-b5e6-6b5cd0c5cfae'}, {'id': '87f1567b-1d05-4c01-aae2-6973a3fc0ece'}, {'id': '81e2eed0-d998-493e-b9fa-c40f31738d79'}, {'id': '0f4feeca-7032-4c6e-b9dd-c8c3dc8ba4a2'}, {'id': '880b6707-ed6c-4b2f-ba79-dcb43caeaf23'}, {'id': '5896dc12-bec4-466d-b627-8587a3b5ac27'}, {'id': '162e26a3-bd09-4072-b55c-3bcab6c75acb'}, {'id': '8be8fc1a-22c1-40b3-b600-03ed257b3119'}, {'id': 'bd8ba619-95f9-4d0d-b325-f1260086c729'}, {'id': 'a9de9af4-4e2d-4d9b-ac38-757e2fbe7566'}, {'id': '02e96089-5b6d-4ac0-b25a-fe2a7137c837'}, {'id': '9cd3e5c3-01b4-4498-ba73-b4693cc02416'}, {'id': '28a20c47-9196-46c9-8c0c-15badbc6e438'}, {'id': '42c509bb-a91f-4e0c-b818-7550ad96e4a6'}, {'id': '71d57f57-3888-4835-b24c-ab452d521c80'}, {'id': '3cb49b64-4a48-4622-832b-50accc9c609b'}, {'id': '213db6ed-34fe-4b09-a7de-ddb1ef199326'}, {'id': '05374bdd-04d5-4a46-8c0a-c6024bdf35e0'}, {'id': 'b1d4d84a-8741-4017-a7ec-ef4b4ae38e85'}, {'id': '1b60deab-50df-48a9-9391-a30bd957411e'}, {'id': '874739ce-05a2-4e96-a3c5-30c04c5ca3ca'}, {'id': 'b2ed83a2-d597-4f95-85ab-6336c79ea09b'}, {'id': '706cc7a6-1ed4-4398-bc6d-0857f7f74320'}, {'id': '5e093c98-2979-480d-905e-de289dc6bd30'}]</t>
+          <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}, {'id': 'e2beda79-0b93-4717-977c-c0ea2d579453'}]</t>
         </is>
       </c>
       <c r="AB42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -9363,7 +9538,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr"/>
+      <c r="AF42" t="n">
+        <v>33645000</v>
+      </c>
       <c r="AG42" t="inlineStr">
         <is>
           <t>sum</t>
@@ -9385,7 +9562,7 @@
         </is>
       </c>
       <c r="AK42" t="n">
-        <v>61000000</v>
+        <v>1000000</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -9402,48 +9579,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>8c20c3e1-370f-4be1-b533-8716cb78184c</t>
+        </is>
+      </c>
       <c r="AP42" t="inlineStr">
         <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
       <c r="AS42" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr">
+      <c r="AV42" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU42" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm Filler', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm Filler', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>597cf9f9-33af-49d3-9497-12806d6733a2</t>
-        </is>
-      </c>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="AX42" t="inlineStr">
-        <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phun môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun môi', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9455,17 +9631,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1b29b376-dc70-44b8-800b-c651443bcf3d</t>
+          <t>3df5317a-ce21-494c-8b30-136d7215f715</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-05-12T18:23:00.000Z</t>
+          <t>2024-05-12T18:12:00.000Z</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-16T08:26:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9478,7 +9654,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nh-n-m-1b29b376dc7044b8800bc651443bcf3d</t>
+          <t>https://www.notion.so/Ti-m-bao-s-3df5317ace21494c8b30136d7215f715</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9546,7 +9722,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
@@ -9560,7 +9736,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>[{'id': '83ff4f77-66d6-4524-8426-93e21517ac56'}]</t>
+          <t>[{'id': 'acdb29b2-b492-4c81-a88a-f3b15388ede5'}]</t>
         </is>
       </c>
       <c r="AB43" t="b">
@@ -9581,7 +9757,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr"/>
+      <c r="AF43" t="n">
+        <v>3000000</v>
+      </c>
       <c r="AG43" t="inlineStr">
         <is>
           <t>sum</t>
@@ -9620,48 +9798,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>45dab270-7660-444d-9317-bbdc06d05237</t>
+        </is>
+      </c>
       <c r="AP43" t="inlineStr">
         <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
       <c r="AS43" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU43" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nhấn mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nhấn mí', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV43" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX43" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Tiêm bao sơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm bao sơ', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9673,17 +9850,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fccfa659-feec-4f61-abcf-9f866b0c0f41</t>
+          <t>baf07de0-3373-43d3-8f4c-e75f3237e30b</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-05-12T18:20:00.000Z</t>
+          <t>2024-05-12T18:11:00.000Z</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9696,7 +9873,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Phun-m-i-fccfa659feec4f61abcf9f866b0c0f41</t>
+          <t>https://www.notion.so/C-t-m-baf07de0337343d38f4ce75f3237e30b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9746,7 +9923,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -9764,7 +9941,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
@@ -9778,11 +9955,11 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}, {'id': 'e2beda79-0b93-4717-977c-c0ea2d579453'}]</t>
+          <t>[{'id': '893ab2ed-828a-4a11-9c84-bf5520163b0a'}, {'id': 'b378929a-8bff-4446-ab7b-040b983f4f5b'}, {'id': 'e513dfdc-cfe4-4dbe-bca6-6710a2612151'}, {'id': '06c4a3da-d763-4b9d-ac7c-435543bfbc5f'}, {'id': '4a6edae0-0547-4c6a-9d31-3a0cebd4ea50'}, {'id': 'f9e744e8-4446-4398-8612-7de9a264c11c'}, {'id': 'dbf5f5b6-9f52-41be-926d-1986c3cbdbdf'}, {'id': '16df7803-c1aa-4226-a83c-b6dde2d47b15'}, {'id': 'a9fe81d4-00fc-4d16-858e-ff7f07f3ac31'}, {'id': '1b6d45b7-4b38-4a70-9eac-a2b38373a338'}, {'id': 'a3d006cd-79fd-4e9b-aa44-cdca21951696'}, {'id': '44b66dee-5888-4c65-a646-068abfcf267b'}, {'id': '5a68bf55-3a73-4c5d-af5a-f52de95bf46d'}, {'id': '627b2b31-b02f-4024-8d27-48c272e0ac55'}, {'id': 'f6fbed44-9445-4551-abce-f70ba52d6d70'}, {'id': '14a50fff-adbb-414c-96f6-2f6d6a89f494'}, {'id': '5d0ade86-d667-4df1-948e-220cab885b27'}, {'id': '5cd8273c-705c-45d1-a56a-41adc6bbc14f'}, {'id': '0aa87cad-a6d3-4ffd-a33c-925796c36bbf'}, {'id': '40ef562d-031c-478a-9d55-d78f14fb64e7'}, {'id': 'f837a40b-8ef0-4906-a281-3eabf29633ac'}, {'id': '7d2bb67a-8478-4f7a-8b6a-500d745acc86'}, {'id': 'b1bb53d5-7f24-46c4-b581-1d7c5e49c59c'}, {'id': 'cdd56929-5444-4e01-9e77-7ddf6e854f3c'}, {'id': 'c7a3e2e4-51a7-4f9c-a422-d134f2590a11'}]</t>
         </is>
       </c>
       <c r="AB44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -9799,7 +9976,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr"/>
+      <c r="AF44" t="n">
+        <v>154400000</v>
+      </c>
       <c r="AG44" t="inlineStr">
         <is>
           <t>sum</t>
@@ -9821,7 +10000,7 @@
         </is>
       </c>
       <c r="AK44" t="n">
-        <v>1000000</v>
+        <v>30000000</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9838,48 +10017,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP44" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
       <c r="AS44" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr">
+      <c r="AV44" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU44" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phun môi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun môi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV44" t="inlineStr">
-        <is>
-          <t>b7b08855-a1ef-4ddf-8fc4-edb6ce985887</t>
-        </is>
-      </c>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Môi</t>
-        </is>
-      </c>
-      <c r="AX44" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cắt mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt mí', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9891,17 +10069,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3df5317a-ce21-494c-8b30-136d7215f715</t>
+          <t>5e0fd9e5-7175-4d47-972f-8bc3f04ec8b7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-05-12T18:12:00.000Z</t>
+          <t>2024-05-12T16:41:00.000Z</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-05-28T15:07:00.000Z</t>
+          <t>2024-07-16T08:43:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9914,7 +10092,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-m-bao-s-3df5317ace21494c8b30136d7215f715</t>
+          <t>https://www.notion.so/N-ng-ng-c-5e0fd9e571754d47972f8bc3f04ec8b7</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9925,19 +10103,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>database_id</t>
@@ -9964,7 +10142,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -9982,7 +10160,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
@@ -9996,7 +10174,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>[{'id': 'acdb29b2-b492-4c81-a88a-f3b15388ede5'}]</t>
+          <t>[{'id': 'b147a43d-3d01-42a3-a267-855d92194f47'}, {'id': 'bcc39a59-6c38-4622-9651-248e26a028c0'}]</t>
         </is>
       </c>
       <c r="AB45" t="b">
@@ -10017,7 +10195,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr"/>
+      <c r="AF45" t="n">
+        <v>76500000</v>
+      </c>
       <c r="AG45" t="inlineStr">
         <is>
           <t>sum</t>
@@ -10039,7 +10219,7 @@
         </is>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -10056,48 +10236,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>30f06f7c-7370-4400-836d-ab7b7c3a9c04</t>
+        </is>
+      </c>
       <c r="AP45" t="inlineStr">
         <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
       <c r="AS45" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU45" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Tiêm bao sơ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tiêm bao sơ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV45" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX45" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nâng ngực', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng ngực', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10109,17 +10288,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>baf07de0-3373-43d3-8f4c-e75f3237e30b</t>
+          <t>a67c22ad-71bc-49f9-9fdb-655f7310818f</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-05-12T18:11:00.000Z</t>
+          <t>2024-05-11T17:45:00.000Z</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-05-28T15:05:00.000Z</t>
+          <t>2024-07-17T12:12:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -10132,7 +10311,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-t-m-baf07de0337343d38f4ce75f3237e30b</t>
+          <t>https://www.notion.so/Phun-m-y-a67c22ad71bc49f99fdb655f7310818f</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -10143,19 +10322,19 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>database_id</t>
@@ -10182,7 +10361,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -10200,7 +10379,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
@@ -10214,7 +10393,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>[{'id': '893ab2ed-828a-4a11-9c84-bf5520163b0a'}, {'id': 'b378929a-8bff-4446-ab7b-040b983f4f5b'}, {'id': 'e513dfdc-cfe4-4dbe-bca6-6710a2612151'}, {'id': '06c4a3da-d763-4b9d-ac7c-435543bfbc5f'}, {'id': '4a6edae0-0547-4c6a-9d31-3a0cebd4ea50'}, {'id': 'f9e744e8-4446-4398-8612-7de9a264c11c'}, {'id': 'dbf5f5b6-9f52-41be-926d-1986c3cbdbdf'}, {'id': '16df7803-c1aa-4226-a83c-b6dde2d47b15'}, {'id': 'a9fe81d4-00fc-4d16-858e-ff7f07f3ac31'}, {'id': '1b6d45b7-4b38-4a70-9eac-a2b38373a338'}, {'id': 'a3d006cd-79fd-4e9b-aa44-cdca21951696'}, {'id': '44b66dee-5888-4c65-a646-068abfcf267b'}, {'id': '5a68bf55-3a73-4c5d-af5a-f52de95bf46d'}, {'id': '627b2b31-b02f-4024-8d27-48c272e0ac55'}, {'id': 'f6fbed44-9445-4551-abce-f70ba52d6d70'}, {'id': '14a50fff-adbb-414c-96f6-2f6d6a89f494'}, {'id': '5d0ade86-d667-4df1-948e-220cab885b27'}, {'id': '5cd8273c-705c-45d1-a56a-41adc6bbc14f'}, {'id': '0aa87cad-a6d3-4ffd-a33c-925796c36bbf'}, {'id': '40ef562d-031c-478a-9d55-d78f14fb64e7'}, {'id': 'f837a40b-8ef0-4906-a281-3eabf29633ac'}, {'id': '7d2bb67a-8478-4f7a-8b6a-500d745acc86'}, {'id': 'b1bb53d5-7f24-46c4-b581-1d7c5e49c59c'}, {'id': 'cdd56929-5444-4e01-9e77-7ddf6e854f3c'}, {'id': 'c7a3e2e4-51a7-4f9c-a422-d134f2590a11'}]</t>
+          <t>[{'id': '6c94f654-d7e6-47c5-872e-2b3fcffe3375'}, {'id': '221bd5ec-14f2-48a2-b15a-e0a7c5021991'}, {'id': '39efae20-9108-457a-866e-8e19452fab64'}, {'id': '4ff7ff08-c27a-4ba9-bb58-09cf2b10c733'}, {'id': '077b68a9-3b91-45c0-b65b-38407cd8b34c'}, {'id': '48196282-9d59-4d57-b773-b901b436a552'}, {'id': '6b391703-aeeb-46bc-a769-a3003186dae9'}, {'id': '16b411d4-9045-4e9b-946f-2cacb0d9ca71'}, {'id': '1da7ee79-5c9a-48f0-b519-3e167b460e5e'}, {'id': 'faefedae-50e5-440c-b811-5c93d9a2658d'}, {'id': '80f3e4e5-4e69-4a50-9bad-a06e11bafbd4'}, {'id': 'f0fe32d6-54de-417f-b768-cdfedc634dc9'}, {'id': 'bb2557b8-93db-4da1-a029-ab1d6dd6cbee'}, {'id': 'e45fab92-058b-45b9-811b-638b6bd8edfa'}, {'id': '2133cf29-6905-4c92-8377-8a5a87c5624c'}, {'id': 'dc15e9b9-e2ff-40ff-b93f-40bc6a4ac485'}, {'id': '4dcd06a7-150a-4199-b134-d4491287c202'}, {'id': '34ad44c5-e453-4e9a-80a5-0279ca8909d3'}, {'id': '1b07a9cd-2331-43ab-864c-4296ff8cdf5c'}, {'id': '90761cd4-2448-4ef2-9ba8-626424ad8e32'}, {'id': '99d48ae5-fd8d-43bc-8b27-f0497a639648'}]</t>
         </is>
       </c>
       <c r="AB46" t="b">
@@ -10235,7 +10414,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>49900000</v>
+      </c>
       <c r="AG46" t="inlineStr">
         <is>
           <t>sum</t>
@@ -10257,7 +10438,7 @@
         </is>
       </c>
       <c r="AK46" t="n">
-        <v>30000000</v>
+        <v>2300000</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -10274,48 +10455,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>8c20c3e1-370f-4be1-b533-8716cb78184c</t>
+        </is>
+      </c>
       <c r="AP46" t="inlineStr">
         <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
       <c r="AS46" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr">
+      <c r="AV46" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cắt mí', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cắt mí', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV46" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX46" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phun mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mày', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10327,17 +10507,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5e0fd9e5-7175-4d47-972f-8bc3f04ec8b7</t>
+          <t>f92df7c2-5305-4ec6-8f40-12514c2e4b95</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-05-12T16:41:00.000Z</t>
+          <t>2024-05-11T17:45:00.000Z</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-17T12:05:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -10350,7 +10530,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/N-ng-ng-c-5e0fd9e571754d47972f8bc3f04ec8b7</t>
+          <t>https://www.notion.so/N-ng-cung-ch-n-m-y-f92df7c253054ec68f4012514c2e4b95</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -10400,7 +10580,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -10418,7 +10598,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
@@ -10432,7 +10612,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>[{'id': 'b147a43d-3d01-42a3-a267-855d92194f47'}, {'id': 'bcc39a59-6c38-4622-9651-248e26a028c0'}]</t>
+          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}]</t>
         </is>
       </c>
       <c r="AB47" t="b">
@@ -10453,7 +10633,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr"/>
+      <c r="AF47" t="n">
+        <v>50200000</v>
+      </c>
       <c r="AG47" t="inlineStr">
         <is>
           <t>sum</t>
@@ -10475,7 +10657,7 @@
         </is>
       </c>
       <c r="AK47" t="n">
-        <v>6500000</v>
+        <v>3000000</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -10492,48 +10674,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>98dbdb3f-b94c-4f41-b56b-a6440a29bb5a</t>
+        </is>
+      </c>
       <c r="AP47" t="inlineStr">
         <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR47" t="n">
-        <v>50000</v>
-      </c>
       <c r="AS47" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU47" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nâng ngực', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng ngực', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV47" t="inlineStr">
-        <is>
-          <t>8c4001e7-b22b-4698-93f1-ab3b4c1d4ab7</t>
-        </is>
-      </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Ngực</t>
-        </is>
-      </c>
-      <c r="AX47" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nâng cung chân mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng cung chân mày', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10726,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>a67c22ad-71bc-49f9-9fdb-655f7310818f</t>
+          <t>540226e3-8d3e-4d95-9152-6e75ba27997f</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10555,7 +10736,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-05-28T15:06:00.000Z</t>
+          <t>2024-07-17T12:08:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10568,7 +10749,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Phun-m-y-a67c22ad71bc49f99fdb655f7310818f</t>
+          <t>https://www.notion.so/N-ng-m-i-540226e38d3e4d9591526e75ba27997f</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10618,7 +10799,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -10636,7 +10817,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
@@ -10650,7 +10831,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>[{'id': '6c94f654-d7e6-47c5-872e-2b3fcffe3375'}, {'id': '221bd5ec-14f2-48a2-b15a-e0a7c5021991'}, {'id': '39efae20-9108-457a-866e-8e19452fab64'}, {'id': '4ff7ff08-c27a-4ba9-bb58-09cf2b10c733'}, {'id': '077b68a9-3b91-45c0-b65b-38407cd8b34c'}, {'id': '48196282-9d59-4d57-b773-b901b436a552'}, {'id': '6b391703-aeeb-46bc-a769-a3003186dae9'}, {'id': '16b411d4-9045-4e9b-946f-2cacb0d9ca71'}, {'id': '1da7ee79-5c9a-48f0-b519-3e167b460e5e'}, {'id': 'faefedae-50e5-440c-b811-5c93d9a2658d'}, {'id': '80f3e4e5-4e69-4a50-9bad-a06e11bafbd4'}, {'id': 'f0fe32d6-54de-417f-b768-cdfedc634dc9'}, {'id': 'bb2557b8-93db-4da1-a029-ab1d6dd6cbee'}, {'id': 'e45fab92-058b-45b9-811b-638b6bd8edfa'}, {'id': '2133cf29-6905-4c92-8377-8a5a87c5624c'}, {'id': 'dc15e9b9-e2ff-40ff-b93f-40bc6a4ac485'}, {'id': '4dcd06a7-150a-4199-b134-d4491287c202'}, {'id': '34ad44c5-e453-4e9a-80a5-0279ca8909d3'}, {'id': '1b07a9cd-2331-43ab-864c-4296ff8cdf5c'}, {'id': '90761cd4-2448-4ef2-9ba8-626424ad8e32'}, {'id': '99d48ae5-fd8d-43bc-8b27-f0497a639648'}]</t>
+          <t>[{'id': '3288f33b-4b81-4780-9e35-7c0bcd92c0a6'}, {'id': 'f3476db0-1c9c-42a9-8514-e848b546f8d4'}, {'id': '22a44544-b3f5-486c-8fbd-7d3188836960'}, {'id': '7cb7922a-84fe-4b82-b64d-07251d2b2e7c'}, {'id': 'dcd300c3-115c-4b54-b7c8-308a82d9554a'}, {'id': 'f60a7fa2-4a1b-4db2-a0a2-ddddc1cc2a67'}, {'id': 'a9f1afd7-5adc-4fa4-9be9-a427a4698950'}, {'id': '662707fe-164a-4d09-bc48-6afbbc231a11'}, {'id': 'ced0223e-5d9d-47a0-957c-8e48f0213199'}, {'id': '3513c336-3fbe-4a50-b8a1-a051f9dfadb5'}, {'id': 'c7093cae-83a6-453f-a6ac-5d6339792d58'}, {'id': '8b569e64-6f61-427c-820b-b3c5691c285d'}, {'id': '378abf63-67ab-40b8-9cb5-0c5f78012192'}, {'id': 'd849b979-617e-4fb2-8638-ac769fde540e'}, {'id': '9ca7d3e5-a50c-410c-9baf-c91464b0dff4'}, {'id': '1936e1d1-5f3d-4bd1-b469-a1951eadb081'}, {'id': '8b0bed59-8ebb-4430-a43b-11f65c771d44'}, {'id': '5bdbe45a-92e0-4899-a455-c7c5a5b290b0'}, {'id': 'a47ada25-beec-41c9-9d5e-386de27852cb'}, {'id': 'bb1e8aed-34fd-40f3-9ed2-f399edaac6db'}, {'id': '1f67b5c2-3c70-4184-8eca-0894bcd84ec1'}, {'id': '991c0e6e-9833-43dd-a8be-212e3a02532c'}, {'id': '48906e1f-067e-4318-8cd1-3c51d7caaf72'}, {'id': '3746bb3c-771e-404a-81da-bafef442d53c'}]</t>
         </is>
       </c>
       <c r="AB48" t="b">
@@ -10671,7 +10852,9 @@
           <t>number</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr"/>
+      <c r="AF48" t="n">
+        <v>356950000</v>
+      </c>
       <c r="AG48" t="inlineStr">
         <is>
           <t>sum</t>
@@ -10693,7 +10876,7 @@
         </is>
       </c>
       <c r="AK48" t="n">
-        <v>2300000</v>
+        <v>91000000</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -10710,484 +10893,47 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
+        </is>
+      </c>
       <c r="AP48" t="inlineStr">
         <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
           <t>vrCq</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR48" t="n">
-        <v>0</v>
-      </c>
       <c r="AS48" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AT48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr">
+      <c r="AV48" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU48" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phun mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mày', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV48" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX48" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>f92df7c2-5305-4ec6-8f40-12514c2e4b95</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2024-05-11T17:45:00.000Z</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2024-05-28T15:06:00.000Z</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://www.notion.so/N-ng-cung-ch-n-m-y-f92df7c253054ec68f4012514c2e4b95</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>database_id</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>a305ae47-9949-42ff-a7e4-c2f249b32723</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>ZESS</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>11</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>%5C%3CS%3A</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="X49" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>hBL%3B</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}]</t>
-        </is>
-      </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>l%40E~</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>mTNk</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AK49" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>ul%5CC</t>
-        </is>
-      </c>
-      <c r="AN49" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr">
-        <is>
-          <t>vrCq</t>
-        </is>
-      </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AT49" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AU49" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nâng cung chân mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng cung chân mày', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV49" t="inlineStr">
-        <is>
-          <t>1679cc32-7980-41f4-a3c6-29cc98d62d73</t>
-        </is>
-      </c>
-      <c r="AW49" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="AX49" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>540226e3-8d3e-4d95-9152-6e75ba27997f</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2024-05-11T17:45:00.000Z</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2024-05-28T15:06:00.000Z</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://www.notion.so/N-ng-m-i-540226e38d3e4d9591526e75ba27997f</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>database_id</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>a305ae47-9949-42ff-a7e4-c2f249b32723</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>ZESS</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>24</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>%5C%3CS%3A</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="X50" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>hBL%3B</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>[{'id': '3288f33b-4b81-4780-9e35-7c0bcd92c0a6'}, {'id': 'f3476db0-1c9c-42a9-8514-e848b546f8d4'}, {'id': '22a44544-b3f5-486c-8fbd-7d3188836960'}, {'id': '7cb7922a-84fe-4b82-b64d-07251d2b2e7c'}, {'id': 'dcd300c3-115c-4b54-b7c8-308a82d9554a'}, {'id': 'f60a7fa2-4a1b-4db2-a0a2-ddddc1cc2a67'}, {'id': 'a9f1afd7-5adc-4fa4-9be9-a427a4698950'}, {'id': '662707fe-164a-4d09-bc48-6afbbc231a11'}, {'id': 'ced0223e-5d9d-47a0-957c-8e48f0213199'}, {'id': '3513c336-3fbe-4a50-b8a1-a051f9dfadb5'}, {'id': 'c7093cae-83a6-453f-a6ac-5d6339792d58'}, {'id': '8b569e64-6f61-427c-820b-b3c5691c285d'}, {'id': '378abf63-67ab-40b8-9cb5-0c5f78012192'}, {'id': 'd849b979-617e-4fb2-8638-ac769fde540e'}, {'id': '9ca7d3e5-a50c-410c-9baf-c91464b0dff4'}, {'id': '1936e1d1-5f3d-4bd1-b469-a1951eadb081'}, {'id': '8b0bed59-8ebb-4430-a43b-11f65c771d44'}, {'id': '5bdbe45a-92e0-4899-a455-c7c5a5b290b0'}, {'id': 'a47ada25-beec-41c9-9d5e-386de27852cb'}, {'id': 'bb1e8aed-34fd-40f3-9ed2-f399edaac6db'}, {'id': '1f67b5c2-3c70-4184-8eca-0894bcd84ec1'}, {'id': '991c0e6e-9833-43dd-a8be-212e3a02532c'}, {'id': '48906e1f-067e-4318-8cd1-3c51d7caaf72'}, {'id': '3746bb3c-771e-404a-81da-bafef442d53c'}]</t>
-        </is>
-      </c>
-      <c r="AB50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>l%40E~</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>mTNk</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>rollup</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AK50" t="n">
-        <v>91000000</v>
-      </c>
-      <c r="AL50" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>ul%5CC</t>
-        </is>
-      </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>vrCq</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR50" t="n">
-        <v>50000</v>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AT50" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AU50" t="inlineStr">
-        <is>
           <t>[{'type': 'text', 'text': {'content': 'Nâng mũi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nâng mũi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV50" t="inlineStr">
-        <is>
-          <t>8147d5bb-57eb-4378-a07d-2790ea008820</t>
-        </is>
-      </c>
-      <c r="AW50" t="inlineStr">
-        <is>
-          <t>Mũi</t>
-        </is>
-      </c>
-      <c r="AX50" t="inlineStr">
-        <is>
-          <t>red</t>
         </is>
       </c>
     </row>

--- a/notion_data/DANH_MUC_DICH_VU.xlsx
+++ b/notion_data/DANH_MUC_DICH_VU.xlsx
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}, {'id': '503b09d8-4792-400c-813e-5e23f48e9ef5'}, {'id': '13361e13-7cde-45f4-bc92-fbce7d440fb6'}, {'id': '29662fbe-635c-4bcc-bc10-4c611a458cc8'}]</t>
+          <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}, {'id': '503b09d8-4792-400c-813e-5e23f48e9ef5'}, {'id': '13361e13-7cde-45f4-bc92-fbce7d440fb6'}, {'id': '29662fbe-635c-4bcc-bc10-4c611a458cc8'}, {'id': '2b0cd0ec-cd1b-40c1-a91f-e4c3c881b4b1'}, {'id': 'f963053f-6c7c-4e24-89bf-308e001f42fa'}]</t>
         </is>
       </c>
       <c r="AB21" t="b">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>23800000</v>
+        <v>26800000</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>

--- a/notion_data/DANH_MUC_DICH_VU.xlsx
+++ b/notion_data/DANH_MUC_DICH_VU.xlsx
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>[{'id': 'fad5cfe0-955f-4389-8131-538a4e30302c'}, {'id': '6166a239-87e8-4188-b05c-99a37220e320'}, {'id': 'beac56a0-ac4b-418f-9902-f28f0fa3e9cd'}, {'id': 'ffe334e6-c632-4e45-bf69-a05e7d01f091'}, {'id': 'c40895fc-0803-4bbc-b6d9-986a52648013'}, {'id': '44516b3b-ec95-451b-b407-afd3979e13e1'}, {'id': '5b507fed-b144-4730-8609-0b30178b547a'}, {'id': '0b5d9c77-6b8b-410a-a9f8-0cd6e3839910'}, {'id': '193aec18-84ce-4fa2-b206-45749f3677d4'}, {'id': '82140858-4a5f-4712-869b-77d9b732c77d'}, {'id': '4796904d-04d7-4511-9678-3fc13f458e73'}, {'id': '2d492137-eb7e-4a52-8434-e8874fc53bdd'}, {'id': 'e0f78fa9-5775-465f-9b1c-c9bede7bafa8'}, {'id': 'c94d9580-18b4-445a-8b4e-38c1a48b6848'}, {'id': 'abab6cb7-595b-4003-a934-6600f5f1a277'}, {'id': '10921285-05e9-4393-aa3b-b546d16e1380'}, {'id': '64061d9e-e676-4e4b-ba84-e6597caeb395'}, {'id': '32523a58-6b4d-4913-9da9-62ab9aa53bcb'}, {'id': '93f73cc0-3070-4c51-96eb-2b5fce5c18a2'}, {'id': '3da3c561-467a-4415-8cbb-19279070c682'}]</t>
+          <t>[{'id': 'fad5cfe0-955f-4389-8131-538a4e30302c'}, {'id': '6166a239-87e8-4188-b05c-99a37220e320'}, {'id': 'beac56a0-ac4b-418f-9902-f28f0fa3e9cd'}, {'id': 'ffe334e6-c632-4e45-bf69-a05e7d01f091'}, {'id': 'c40895fc-0803-4bbc-b6d9-986a52648013'}, {'id': '44516b3b-ec95-451b-b407-afd3979e13e1'}, {'id': '5b507fed-b144-4730-8609-0b30178b547a'}, {'id': '0b5d9c77-6b8b-410a-a9f8-0cd6e3839910'}, {'id': '193aec18-84ce-4fa2-b206-45749f3677d4'}, {'id': '82140858-4a5f-4712-869b-77d9b732c77d'}, {'id': '4796904d-04d7-4511-9678-3fc13f458e73'}, {'id': '2d492137-eb7e-4a52-8434-e8874fc53bdd'}, {'id': 'e0f78fa9-5775-465f-9b1c-c9bede7bafa8'}, {'id': 'c94d9580-18b4-445a-8b4e-38c1a48b6848'}, {'id': 'abab6cb7-595b-4003-a934-6600f5f1a277'}, {'id': '10921285-05e9-4393-aa3b-b546d16e1380'}, {'id': '64061d9e-e676-4e4b-ba84-e6597caeb395'}, {'id': '32523a58-6b4d-4913-9da9-62ab9aa53bcb'}, {'id': '93f73cc0-3070-4c51-96eb-2b5fce5c18a2'}, {'id': '3da3c561-467a-4415-8cbb-19279070c682'}, {'id': 'b19cab58-95e8-4ac3-bc15-f6287c0e9793'}]</t>
         </is>
       </c>
       <c r="AB27" t="b">
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="AF27" t="n">
-        <v>44200000</v>
+        <v>46200000</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>

--- a/notion_data/DANH_MUC_DICH_VU.xlsx
+++ b/notion_data/DANH_MUC_DICH_VU.xlsx
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}]</t>
+          <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}, {'id': 'f02967b7-5890-4d69-9c20-d9afd3085a9e'}]</t>
         </is>
       </c>
       <c r="AB47" t="b">
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>50200000</v>
+        <v>57200000</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
